--- a/airica/data/LD_storage_test/AIRICA_storage_test_mod_20012022.xlsx
+++ b/airica/data/LD_storage_test/AIRICA_storage_test_mod_20012022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\lab-work\airica\data\LD_storage_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4140DE7A-AA7C-4BE7-ACE7-E614D6274ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8860B3AC-0078-4119-B5AE-9E68843F4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
   </bookViews>
@@ -1608,9 +1608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD63930-A9D0-4326-B92B-8C89864D4982}">
   <dimension ref="A1:Y155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S156" sqref="S156"/>
+      <selection pane="bottomLeft" activeCell="V133" sqref="V133:X155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11543,6 +11543,15 @@
       <c r="U133" s="1">
         <v>32</v>
       </c>
+      <c r="V133" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W133" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X133" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -11608,6 +11617,15 @@
       <c r="U134" s="1">
         <v>32</v>
       </c>
+      <c r="V134" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W134" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X134" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -11673,6 +11691,15 @@
       <c r="U135" s="1">
         <v>32</v>
       </c>
+      <c r="V135" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W135" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X135" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -11738,6 +11765,15 @@
       <c r="U136" s="1">
         <v>32</v>
       </c>
+      <c r="V136" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W136" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X136" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -11803,6 +11839,15 @@
       <c r="U137" s="1">
         <v>32</v>
       </c>
+      <c r="V137" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W137" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X137" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -11868,6 +11913,15 @@
       <c r="U138" s="1">
         <v>32</v>
       </c>
+      <c r="V138" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W138" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X138" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -11933,6 +11987,15 @@
       <c r="U139" s="1">
         <v>32</v>
       </c>
+      <c r="V139" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W139" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X139" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -11998,6 +12061,15 @@
       <c r="U140" s="1">
         <v>33.484999999999999</v>
       </c>
+      <c r="V140" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W140" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X140" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -12063,6 +12135,15 @@
       <c r="U141" s="1">
         <v>33.484999999999999</v>
       </c>
+      <c r="V141" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W141" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X141" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -12128,6 +12209,15 @@
       <c r="U142" s="1">
         <v>33.484999999999999</v>
       </c>
+      <c r="V142" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W142" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X142" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -12193,6 +12283,15 @@
       <c r="U143" s="1">
         <v>32</v>
       </c>
+      <c r="V143" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W143" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X143" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -12258,8 +12357,17 @@
       <c r="U144" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V144" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W144" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X144" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>338</v>
       </c>
@@ -12323,8 +12431,17 @@
       <c r="U145" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V145" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W145" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X145" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>338</v>
       </c>
@@ -12388,8 +12505,17 @@
       <c r="U146" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V146" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W146" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X146" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>338</v>
       </c>
@@ -12453,8 +12579,17 @@
       <c r="U147" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V147" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W147" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X147" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>338</v>
       </c>
@@ -12518,8 +12653,17 @@
       <c r="U148" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V148" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W148" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X148" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>338</v>
       </c>
@@ -12583,8 +12727,17 @@
       <c r="U149" s="1">
         <v>33.494</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V149" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W149" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X149" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>338</v>
       </c>
@@ -12648,8 +12801,17 @@
       <c r="U150" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V150" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W150" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X150" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>338</v>
       </c>
@@ -12713,8 +12875,17 @@
       <c r="U151" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V151" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W151" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X151" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>338</v>
       </c>
@@ -12778,8 +12949,17 @@
       <c r="U152" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V152" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W152" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X152" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>338</v>
       </c>
@@ -12843,8 +13023,17 @@
       <c r="U153" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V153" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W153" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X153" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>338</v>
       </c>
@@ -12908,8 +13097,17 @@
       <c r="U154" s="1">
         <v>33.484999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V154" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W154" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X154" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>338</v>
       </c>
@@ -12972,6 +13170,15 @@
       </c>
       <c r="U155" s="1">
         <v>33.484999999999999</v>
+      </c>
+      <c r="V155" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W155" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X155" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/airica/data/LD_storage_test/AIRICA_storage_test_mod_20012022.xlsx
+++ b/airica/data/LD_storage_test/AIRICA_storage_test_mod_20012022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\lab-work\airica\data\LD_storage_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8860B3AC-0078-4119-B5AE-9E68843F4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56EE04F-E50D-4D62-B738-2C633E42F061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
   </bookViews>
@@ -1608,9 +1608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD63930-A9D0-4326-B92B-8C89864D4982}">
   <dimension ref="A1:Y155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V133" sqref="V133:X155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>237</v>
@@ -8432,7 +8432,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>239</v>

--- a/airica/data/LD_storage_test/AIRICA_storage_test_mod_20012022.xlsx
+++ b/airica/data/LD_storage_test/AIRICA_storage_test_mod_20012022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\lab-work\airica\data\LD_storage_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56EE04F-E50D-4D62-B738-2C633E42F061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61980D7C-A0E1-4C4A-ACDE-DE0CEB455DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
+    <workbookView xWindow="3600" yWindow="2430" windowWidth="21600" windowHeight="11235" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="400">
   <si>
     <t>Area</t>
   </si>
@@ -1189,6 +1189,51 @@
   </si>
   <si>
     <t>0-0  0  (0)CRM-195-0114-1200-2.dat</t>
+  </si>
+  <si>
+    <t>J74</t>
+  </si>
+  <si>
+    <t>J73</t>
+  </si>
+  <si>
+    <t>J75</t>
+  </si>
+  <si>
+    <t>J76</t>
+  </si>
+  <si>
+    <t>J77</t>
+  </si>
+  <si>
+    <t>Aborted - Kloehn not pulling sample</t>
+  </si>
+  <si>
+    <t>Restarted system prior to sample - Aborted - Kloehn not ok, Peltier ok</t>
+  </si>
+  <si>
+    <t>Restarted software prior to sample - Aborted - Kloehn ok but Peltier staying on while off in software</t>
+  </si>
+  <si>
+    <t>Restarted system prior to sample - Aborted - Kloehn not ok (no sound), Peltier ok</t>
+  </si>
+  <si>
+    <t>Kloehn ok, Peltier ok - Reset zero prior to sample - LiCor not recording? Nothing on graph and CO2 ~ --500</t>
+  </si>
+  <si>
+    <t>Reset zero prior to sample - all above ok</t>
+  </si>
+  <si>
+    <t>Curves not amazing (especially 3rd one)</t>
+  </si>
+  <si>
+    <t>Reset zero prior to sample - good curves</t>
+  </si>
+  <si>
+    <t>Beautiful curves</t>
+  </si>
+  <si>
+    <t>Not so great 4th curve</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1290,6 +1335,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1606,11 +1657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD63930-A9D0-4326-B92B-8C89864D4982}">
-  <dimension ref="A1:Y155"/>
+  <dimension ref="A1:Y160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="D1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1670,8 @@
     <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
     <col min="5" max="18" width="8.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="33.7109375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="1"/>
     <col min="22" max="22" width="8.7109375" style="3"/>
     <col min="23" max="23" width="8.7109375" style="1"/>
     <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -6543,6 +6595,15 @@
       <c r="U66" s="1">
         <v>32</v>
       </c>
+      <c r="V66" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="W66" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="X66" s="7">
+        <v>-9999</v>
+      </c>
       <c r="Y66" s="2" t="s">
         <v>216</v>
       </c>
@@ -6996,6 +7057,15 @@
       <c r="U72" s="1">
         <v>32</v>
       </c>
+      <c r="V72" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="W72" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="X72" s="7">
+        <v>-9999</v>
+      </c>
       <c r="Y72" s="2" t="s">
         <v>179</v>
       </c>
@@ -7064,6 +7134,15 @@
       <c r="U73" s="1">
         <v>32</v>
       </c>
+      <c r="V73" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="W73" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="X73" s="7">
+        <v>-9999</v>
+      </c>
       <c r="Y73" s="2" t="s">
         <v>180</v>
       </c>
@@ -8793,6 +8872,15 @@
       <c r="U96" s="1">
         <v>32</v>
       </c>
+      <c r="V96" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="W96" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="X96" s="7">
+        <v>-9999</v>
+      </c>
       <c r="Y96" s="2" t="s">
         <v>258</v>
       </c>
@@ -8861,6 +8949,15 @@
       <c r="U97" s="1">
         <v>32</v>
       </c>
+      <c r="V97" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="W97" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="X97" s="7">
+        <v>-9999</v>
+      </c>
       <c r="Y97" s="2" t="s">
         <v>258</v>
       </c>
@@ -9391,6 +9488,15 @@
       <c r="U104" s="1">
         <v>32</v>
       </c>
+      <c r="V104" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="W104" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="X104" s="7">
+        <v>-9999</v>
+      </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -9456,6 +9562,15 @@
       <c r="U105" s="1">
         <v>32</v>
       </c>
+      <c r="V105" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="W105" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="X105" s="7">
+        <v>-9999</v>
+      </c>
       <c r="Y105" s="2" t="s">
         <v>286</v>
       </c>
@@ -9524,6 +9639,15 @@
       <c r="U106" s="1">
         <v>32</v>
       </c>
+      <c r="V106" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="W106" s="7">
+        <v>-9999</v>
+      </c>
+      <c r="X106" s="7">
+        <v>-9999</v>
+      </c>
       <c r="Y106" s="2" t="s">
         <v>287</v>
       </c>
@@ -11401,6 +11525,8 @@
       <c r="V131" s="3">
         <v>2076.6</v>
       </c>
+      <c r="W131" s="13"/>
+      <c r="X131" s="13"/>
       <c r="Y131" s="2" t="s">
         <v>335</v>
       </c>
@@ -11490,7 +11616,7 @@
         <v>60</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="E133" s="1">
         <v>360</v>
@@ -11543,14 +11669,17 @@
       <c r="U133" s="1">
         <v>32</v>
       </c>
-      <c r="V133" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W133" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X133" s="8">
-        <v>0.5</v>
+      <c r="V133" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="W133" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="X133" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="Y133" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
@@ -11564,7 +11693,7 @@
         <v>60</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="E134" s="1">
         <v>360</v>
@@ -11609,7 +11738,7 @@
         <v>80</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T134" s="1">
         <v>7</v>
@@ -11617,14 +11746,17 @@
       <c r="U134" s="1">
         <v>32</v>
       </c>
-      <c r="V134" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W134" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X134" s="8">
-        <v>0.5</v>
+      <c r="V134" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="W134" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="X134" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="Y134" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
@@ -11638,7 +11770,7 @@
         <v>60</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="E135" s="1">
         <v>360</v>
@@ -11683,7 +11815,7 @@
         <v>80</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="T135" s="1">
         <v>7</v>
@@ -11691,14 +11823,17 @@
       <c r="U135" s="1">
         <v>32</v>
       </c>
-      <c r="V135" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W135" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X135" s="8">
-        <v>0.5</v>
+      <c r="V135" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="W135" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="X135" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="Y135" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
@@ -11712,7 +11847,7 @@
         <v>60</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="E136" s="1">
         <v>360</v>
@@ -11757,7 +11892,7 @@
         <v>80</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="T136" s="1">
         <v>7</v>
@@ -11765,14 +11900,17 @@
       <c r="U136" s="1">
         <v>32</v>
       </c>
-      <c r="V136" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W136" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X136" s="8">
-        <v>0.5</v>
+      <c r="V136" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="W136" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="X136" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="Y136" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
@@ -11786,7 +11924,7 @@
         <v>60</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E137" s="1">
         <v>360</v>
@@ -11831,7 +11969,7 @@
         <v>80</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="T137" s="1">
         <v>7</v>
@@ -11839,14 +11977,17 @@
       <c r="U137" s="1">
         <v>32</v>
       </c>
-      <c r="V137" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W137" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X137" s="8">
-        <v>0.5</v>
+      <c r="V137" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="W137" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="X137" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="Y137" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
@@ -11860,7 +12001,7 @@
         <v>60</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E138" s="1">
         <v>360</v>
@@ -11905,7 +12046,7 @@
         <v>80</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="T138" s="1">
         <v>7</v>
@@ -11913,14 +12054,17 @@
       <c r="U138" s="1">
         <v>32</v>
       </c>
-      <c r="V138" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W138" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X138" s="8">
-        <v>0.5</v>
+      <c r="V138" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="W138" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="X138" s="14">
+        <v>-9999</v>
+      </c>
+      <c r="Y138" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
@@ -11934,7 +12078,7 @@
         <v>60</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E139" s="1">
         <v>360</v>
@@ -11979,7 +12123,7 @@
         <v>80</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="T139" s="1">
         <v>7</v>
@@ -11987,14 +12131,17 @@
       <c r="U139" s="1">
         <v>32</v>
       </c>
-      <c r="V139" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W139" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X139" s="8">
-        <v>0.5</v>
+      <c r="V139" s="14">
+        <v>2362.1</v>
+      </c>
+      <c r="W139" s="12">
+        <v>25874</v>
+      </c>
+      <c r="X139" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Y139" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
@@ -12005,10 +12152,10 @@
         <v>7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E140" s="1">
         <v>360</v>
@@ -12023,10 +12170,10 @@
         <v>10</v>
       </c>
       <c r="I140" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J140" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
@@ -12035,7 +12182,7 @@
         <v>150</v>
       </c>
       <c r="M140" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N140" s="1">
         <v>3</v>
@@ -12053,22 +12200,25 @@
         <v>80</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="T140" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U140" s="1">
-        <v>33.484999999999999</v>
-      </c>
-      <c r="V140" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W140" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X140" s="8">
-        <v>0.5</v>
+        <v>32</v>
+      </c>
+      <c r="V140" s="14">
+        <v>2361.4</v>
+      </c>
+      <c r="W140" s="12">
+        <v>25865</v>
+      </c>
+      <c r="X140" s="12">
+        <v>0.153</v>
+      </c>
+      <c r="Y140" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.25">
@@ -12079,10 +12229,10 @@
         <v>7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E141" s="1">
         <v>360</v>
@@ -12127,22 +12277,25 @@
         <v>80</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="T141" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U141" s="1">
-        <v>33.484999999999999</v>
-      </c>
-      <c r="V141" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W141" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X141" s="8">
-        <v>0.5</v>
+        <v>32</v>
+      </c>
+      <c r="V141" s="14">
+        <v>2364</v>
+      </c>
+      <c r="W141" s="12">
+        <v>25894</v>
+      </c>
+      <c r="X141" s="12">
+        <v>0.183</v>
+      </c>
+      <c r="Y141" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.25">
@@ -12153,10 +12306,10 @@
         <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E142" s="1">
         <v>360</v>
@@ -12171,10 +12324,10 @@
         <v>10</v>
       </c>
       <c r="I142" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J142" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K142" s="1">
         <v>150</v>
@@ -12183,7 +12336,7 @@
         <v>150</v>
       </c>
       <c r="M142" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N142" s="1">
         <v>3</v>
@@ -12201,22 +12354,25 @@
         <v>80</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="T142" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U142" s="1">
-        <v>33.484999999999999</v>
-      </c>
-      <c r="V142" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W142" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X142" s="8">
-        <v>0.5</v>
+        <v>32</v>
+      </c>
+      <c r="V142" s="14">
+        <v>2358</v>
+      </c>
+      <c r="W142" s="12">
+        <v>25827</v>
+      </c>
+      <c r="X142" s="12">
+        <v>0.129</v>
+      </c>
+      <c r="Y142" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
@@ -12227,10 +12383,10 @@
         <v>7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E143" s="1">
         <v>360</v>
@@ -12275,22 +12431,25 @@
         <v>80</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="T143" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U143" s="1">
         <v>32</v>
       </c>
-      <c r="V143" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W143" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X143" s="8">
-        <v>0.5</v>
+      <c r="V143" s="14">
+        <v>2359.3000000000002</v>
+      </c>
+      <c r="W143" s="12">
+        <v>25840</v>
+      </c>
+      <c r="X143" s="12">
+        <v>0.248</v>
+      </c>
+      <c r="Y143" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
@@ -12301,10 +12460,10 @@
         <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E144" s="1">
         <v>360</v>
@@ -12349,25 +12508,28 @@
         <v>80</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="T144" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U144" s="1">
         <v>32</v>
       </c>
-      <c r="V144" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W144" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X144" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V144" s="14">
+        <v>2359.3000000000002</v>
+      </c>
+      <c r="W144" s="12">
+        <v>25840</v>
+      </c>
+      <c r="X144" s="12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Y144" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>338</v>
       </c>
@@ -12375,10 +12537,10 @@
         <v>7</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E145" s="1">
         <v>360</v>
@@ -12393,10 +12555,10 @@
         <v>10</v>
       </c>
       <c r="I145" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J145" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K145" s="1">
         <v>150</v>
@@ -12405,7 +12567,7 @@
         <v>150</v>
       </c>
       <c r="M145" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N145" s="1">
         <v>3</v>
@@ -12423,25 +12585,28 @@
         <v>80</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="T145" s="1">
         <v>2</v>
       </c>
       <c r="U145" s="1">
-        <v>32</v>
-      </c>
-      <c r="V145" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W145" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X145" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+        <v>33.484999999999999</v>
+      </c>
+      <c r="V145" s="14">
+        <v>2075.6999999999998</v>
+      </c>
+      <c r="W145" s="12">
+        <v>18945</v>
+      </c>
+      <c r="X145" s="12">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Y145" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>338</v>
       </c>
@@ -12449,10 +12614,10 @@
         <v>7</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E146" s="1">
         <v>360</v>
@@ -12497,25 +12662,28 @@
         <v>80</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="T146" s="1">
         <v>2</v>
       </c>
       <c r="U146" s="1">
-        <v>32</v>
-      </c>
-      <c r="V146" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W146" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X146" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+        <v>33.484999999999999</v>
+      </c>
+      <c r="V146" s="14">
+        <v>2081.5</v>
+      </c>
+      <c r="W146" s="12">
+        <v>22796</v>
+      </c>
+      <c r="X146" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Y146" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>338</v>
       </c>
@@ -12523,10 +12691,10 @@
         <v>7</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E147" s="1">
         <v>360</v>
@@ -12541,10 +12709,10 @@
         <v>10</v>
       </c>
       <c r="I147" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J147" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K147" s="1">
         <v>150</v>
@@ -12553,7 +12721,7 @@
         <v>150</v>
       </c>
       <c r="M147" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N147" s="1">
         <v>3</v>
@@ -12571,25 +12739,28 @@
         <v>80</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="T147" s="1">
         <v>2</v>
       </c>
       <c r="U147" s="1">
-        <v>32</v>
-      </c>
-      <c r="V147" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W147" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X147" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+        <v>33.484999999999999</v>
+      </c>
+      <c r="V147" s="14">
+        <v>2083.1</v>
+      </c>
+      <c r="W147" s="12">
+        <v>26616</v>
+      </c>
+      <c r="X147" s="12">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y147" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>338</v>
       </c>
@@ -12597,10 +12768,10 @@
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E148" s="1">
         <v>360</v>
@@ -12645,7 +12816,7 @@
         <v>80</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="T148" s="1">
         <v>2</v>
@@ -12653,17 +12824,17 @@
       <c r="U148" s="1">
         <v>32</v>
       </c>
-      <c r="V148" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W148" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X148" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V148" s="14">
+        <v>2225.5</v>
+      </c>
+      <c r="W148" s="12">
+        <v>24372</v>
+      </c>
+      <c r="X148" s="12">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>338</v>
       </c>
@@ -12671,10 +12842,10 @@
         <v>7</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E149" s="1">
         <v>360</v>
@@ -12719,25 +12890,25 @@
         <v>80</v>
       </c>
       <c r="S149" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="T149" s="1">
         <v>2</v>
       </c>
       <c r="U149" s="1">
-        <v>33.494</v>
-      </c>
-      <c r="V149" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W149" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X149" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="V149" s="14">
+        <v>2231.1</v>
+      </c>
+      <c r="W149" s="12">
+        <v>24433</v>
+      </c>
+      <c r="X149" s="12">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>338</v>
       </c>
@@ -12748,7 +12919,7 @@
         <v>26</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E150" s="1">
         <v>360</v>
@@ -12793,7 +12964,7 @@
         <v>80</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="T150" s="1">
         <v>2</v>
@@ -12801,17 +12972,17 @@
       <c r="U150" s="1">
         <v>32</v>
       </c>
-      <c r="V150" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W150" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X150" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V150" s="14">
+        <v>2226.5</v>
+      </c>
+      <c r="W150" s="12">
+        <v>24383</v>
+      </c>
+      <c r="X150" s="12">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>338</v>
       </c>
@@ -12822,7 +12993,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E151" s="1">
         <v>360</v>
@@ -12867,7 +13038,7 @@
         <v>80</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="T151" s="1">
         <v>2</v>
@@ -12875,17 +13046,17 @@
       <c r="U151" s="1">
         <v>32</v>
       </c>
-      <c r="V151" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W151" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X151" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V151" s="14">
+        <v>2225.8000000000002</v>
+      </c>
+      <c r="W151" s="12">
+        <v>24375</v>
+      </c>
+      <c r="X151" s="12">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>338</v>
       </c>
@@ -12896,7 +13067,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E152" s="1">
         <v>360</v>
@@ -12941,7 +13112,7 @@
         <v>80</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="T152" s="1">
         <v>2</v>
@@ -12949,17 +13120,17 @@
       <c r="U152" s="1">
         <v>32</v>
       </c>
-      <c r="V152" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W152" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X152" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V152" s="14">
+        <v>2225</v>
+      </c>
+      <c r="W152" s="12">
+        <v>24366</v>
+      </c>
+      <c r="X152" s="12">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>338</v>
       </c>
@@ -12970,7 +13141,7 @@
         <v>26</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E153" s="1">
         <v>360</v>
@@ -13015,7 +13186,7 @@
         <v>80</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="T153" s="1">
         <v>2</v>
@@ -13023,17 +13194,17 @@
       <c r="U153" s="1">
         <v>32</v>
       </c>
-      <c r="V153" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W153" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X153" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V153" s="14">
+        <v>2228.1999999999998</v>
+      </c>
+      <c r="W153" s="12">
+        <v>24401</v>
+      </c>
+      <c r="X153" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>338</v>
       </c>
@@ -13044,7 +13215,7 @@
         <v>61</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E154" s="1">
         <v>360</v>
@@ -13089,25 +13260,25 @@
         <v>80</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="T154" s="1">
         <v>2</v>
       </c>
       <c r="U154" s="1">
-        <v>33.484999999999999</v>
-      </c>
-      <c r="V154" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W154" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X154" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+        <v>33.494</v>
+      </c>
+      <c r="V154" s="14">
+        <v>2068.4</v>
+      </c>
+      <c r="W154" s="12">
+        <v>22651</v>
+      </c>
+      <c r="X154" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>338</v>
       </c>
@@ -13115,70 +13286,440 @@
         <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E155" s="1">
+        <v>360</v>
+      </c>
+      <c r="F155" s="1">
+        <v>75</v>
+      </c>
+      <c r="G155" s="1">
+        <v>120</v>
+      </c>
+      <c r="H155" s="1">
+        <v>10</v>
+      </c>
+      <c r="I155" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J155" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K155" s="1">
+        <v>150</v>
+      </c>
+      <c r="L155" s="1">
+        <v>150</v>
+      </c>
+      <c r="M155" s="1">
+        <v>18</v>
+      </c>
+      <c r="N155" s="1">
+        <v>3</v>
+      </c>
+      <c r="O155" s="1">
+        <v>2</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="T155" s="1">
+        <v>2</v>
+      </c>
+      <c r="U155" s="1">
+        <v>32</v>
+      </c>
+      <c r="V155" s="14">
+        <v>2228.6</v>
+      </c>
+      <c r="W155" s="12">
+        <v>24404</v>
+      </c>
+      <c r="X155" s="12">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B156" s="1">
+        <v>7</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E156" s="1">
+        <v>360</v>
+      </c>
+      <c r="F156" s="1">
+        <v>75</v>
+      </c>
+      <c r="G156" s="1">
+        <v>120</v>
+      </c>
+      <c r="H156" s="1">
+        <v>10</v>
+      </c>
+      <c r="I156" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K156" s="1">
+        <v>150</v>
+      </c>
+      <c r="L156" s="1">
+        <v>150</v>
+      </c>
+      <c r="M156" s="1">
+        <v>18</v>
+      </c>
+      <c r="N156" s="1">
+        <v>3</v>
+      </c>
+      <c r="O156" s="1">
+        <v>2</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T156" s="1">
+        <v>2</v>
+      </c>
+      <c r="U156" s="1">
+        <v>32</v>
+      </c>
+      <c r="V156" s="14">
+        <v>2228</v>
+      </c>
+      <c r="W156" s="12">
+        <v>24398</v>
+      </c>
+      <c r="X156" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B157" s="1">
+        <v>7</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E157" s="1">
+        <v>360</v>
+      </c>
+      <c r="F157" s="1">
+        <v>75</v>
+      </c>
+      <c r="G157" s="1">
+        <v>120</v>
+      </c>
+      <c r="H157" s="1">
+        <v>10</v>
+      </c>
+      <c r="I157" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K157" s="1">
+        <v>150</v>
+      </c>
+      <c r="L157" s="1">
+        <v>150</v>
+      </c>
+      <c r="M157" s="1">
+        <v>18</v>
+      </c>
+      <c r="N157" s="1">
+        <v>3</v>
+      </c>
+      <c r="O157" s="1">
+        <v>2</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="T157" s="1">
+        <v>2</v>
+      </c>
+      <c r="U157" s="1">
+        <v>32</v>
+      </c>
+      <c r="V157" s="14">
+        <v>2227.3000000000002</v>
+      </c>
+      <c r="W157" s="12">
+        <v>24391</v>
+      </c>
+      <c r="X157" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B158" s="1">
+        <v>7</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E158" s="1">
+        <v>360</v>
+      </c>
+      <c r="F158" s="1">
+        <v>75</v>
+      </c>
+      <c r="G158" s="1">
+        <v>120</v>
+      </c>
+      <c r="H158" s="1">
+        <v>10</v>
+      </c>
+      <c r="I158" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K158" s="1">
+        <v>150</v>
+      </c>
+      <c r="L158" s="1">
+        <v>150</v>
+      </c>
+      <c r="M158" s="1">
+        <v>18</v>
+      </c>
+      <c r="N158" s="1">
+        <v>3</v>
+      </c>
+      <c r="O158" s="1">
+        <v>2</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="T158" s="1">
+        <v>2</v>
+      </c>
+      <c r="U158" s="1">
+        <v>32</v>
+      </c>
+      <c r="V158" s="14">
+        <v>2227.5</v>
+      </c>
+      <c r="W158" s="12">
+        <v>24392</v>
+      </c>
+      <c r="X158" s="12">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" s="1">
+        <v>7</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D159" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E159" s="1">
+        <v>360</v>
+      </c>
+      <c r="F159" s="1">
+        <v>75</v>
+      </c>
+      <c r="G159" s="1">
+        <v>120</v>
+      </c>
+      <c r="H159" s="1">
+        <v>10</v>
+      </c>
+      <c r="I159" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J159" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K159" s="1">
+        <v>150</v>
+      </c>
+      <c r="L159" s="1">
+        <v>150</v>
+      </c>
+      <c r="M159" s="1">
+        <v>18</v>
+      </c>
+      <c r="N159" s="1">
+        <v>3</v>
+      </c>
+      <c r="O159" s="1">
+        <v>2</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="T159" s="1">
+        <v>2</v>
+      </c>
+      <c r="U159" s="1">
+        <v>33.484999999999999</v>
+      </c>
+      <c r="V159" s="14">
+        <v>2078.1</v>
+      </c>
+      <c r="W159" s="12">
+        <v>22756</v>
+      </c>
+      <c r="X159" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B160" s="1">
+        <v>7</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E155" s="1">
-        <v>360</v>
-      </c>
-      <c r="F155" s="1">
-        <v>75</v>
-      </c>
-      <c r="G155" s="1">
-        <v>120</v>
-      </c>
-      <c r="H155" s="1">
-        <v>10</v>
-      </c>
-      <c r="I155" s="1">
-        <v>1200</v>
-      </c>
-      <c r="J155" s="1">
-        <v>1200</v>
-      </c>
-      <c r="K155" s="1">
-        <v>150</v>
-      </c>
-      <c r="L155" s="1">
-        <v>150</v>
-      </c>
-      <c r="M155" s="1">
-        <v>18</v>
-      </c>
-      <c r="N155" s="1">
-        <v>3</v>
-      </c>
-      <c r="O155" s="1">
-        <v>2</v>
-      </c>
-      <c r="P155" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q155" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R155" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S155" s="2" t="s">
+      <c r="E160" s="1">
+        <v>360</v>
+      </c>
+      <c r="F160" s="1">
+        <v>75</v>
+      </c>
+      <c r="G160" s="1">
+        <v>120</v>
+      </c>
+      <c r="H160" s="1">
+        <v>10</v>
+      </c>
+      <c r="I160" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J160" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K160" s="1">
+        <v>150</v>
+      </c>
+      <c r="L160" s="1">
+        <v>150</v>
+      </c>
+      <c r="M160" s="1">
+        <v>18</v>
+      </c>
+      <c r="N160" s="1">
+        <v>3</v>
+      </c>
+      <c r="O160" s="1">
+        <v>2</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S160" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="T155" s="1">
-        <v>2</v>
-      </c>
-      <c r="U155" s="1">
+      <c r="T160" s="1">
+        <v>2</v>
+      </c>
+      <c r="U160" s="1">
         <v>33.484999999999999</v>
       </c>
-      <c r="V155" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W155" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X155" s="8">
-        <v>0.5</v>
+      <c r="V160" s="14">
+        <v>2081.5</v>
+      </c>
+      <c r="W160" s="12">
+        <v>22794</v>
+      </c>
+      <c r="X160" s="12">
+        <v>0.215</v>
       </c>
     </row>
   </sheetData>
